--- a/biology/Botanique/Peter_F._Stevens/Peter_F._Stevens.xlsx
+++ b/biology/Botanique/Peter_F._Stevens/Peter_F._Stevens.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Peter Francis Stevens (Peter F. Stevens ou P.F.Stevens) est un botaniste américain né en 1944.
 Il est chercheur au jardin botanique du Missouri et professeur de biologie à l'Université du Missouri – St. Louis (en), à Saint-Louis (Missouri). Mais plus important, il est membre de l'Angiosperm Phylogeny Group ayant créé la classification phylogénétique de l'APG : APG (1998), APG II (2003), APG III (2009) et APG IV (2016).
@@ -513,7 +525,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">(en) P. F. Stevens, « Augustin Augier's "Arbre Botanique" (1801), a Remarkable Early Botanical Representation of the Natural System », Taxon, vol. 32, no 2,‎ mai 1983, p. 203-211 (DOI 10.2307/1221972, JSTOR 1221972).
 </t>
@@ -544,7 +558,9 @@
           <t>Quelques espèces identifiées</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 famille des Clusiaceae
